--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -602,6 +602,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1053,7 +1057,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
